--- a/sbu/docs/process/consortium-building.xlsx
+++ b/sbu/docs/process/consortium-building.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dag/dev/GitHub/sov-toip-metasystem/sbu/docs/process/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dag/dev/GitHub/SGF-v3/sbu/docs/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04C8C76-E132-4648-88A9-3E2B90015C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929ACF80-585C-624B-8E47-EB730E463EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="840" windowWidth="28040" windowHeight="17040" xr2:uid="{702FA72A-49E1-2647-A173-7AD021F53064}"/>
+    <workbookView xWindow="2540" yWindow="3820" windowWidth="28040" windowHeight="17040" xr2:uid="{702FA72A-49E1-2647-A173-7AD021F53064}"/>
   </bookViews>
   <sheets>
     <sheet name="Wave 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>Company</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Metlife</t>
   </si>
   <si>
-    <t>SwissRe</t>
-  </si>
-  <si>
     <t>Allianz</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Not Yet Scheduled</t>
   </si>
   <si>
-    <t>Working with IBM HR on Strategy</t>
-  </si>
-  <si>
     <t>Responded</t>
   </si>
   <si>
@@ -216,10 +210,19 @@
     <t>Exec: Drummond Reed, Consortium Associate: Drummond Reed</t>
   </si>
   <si>
-    <t>Exec: Charlie Walton, Consortium Associate: TBD</t>
-  </si>
-  <si>
     <t>Exec: Christine Leong, Consortium Associate: Christine Leong</t>
+  </si>
+  <si>
+    <t>Veridium</t>
+  </si>
+  <si>
+    <t>SwissRe Institute</t>
+  </si>
+  <si>
+    <t>Exec: Jeffrey Bohn, Consortium Associate: Jags Rao</t>
+  </si>
+  <si>
+    <t>Exec: Charlie Walton, Consortium Associate: Ashfaq Kamal</t>
   </si>
 </sst>
 </file>
@@ -637,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62ED1D07-A545-BE42-AFFE-11EACD5FAE8A}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="149" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,53 +674,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -725,32 +728,32 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -758,13 +761,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -772,13 +775,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -786,29 +789,29 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -816,13 +819,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -841,52 +844,52 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -894,21 +897,21 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -916,43 +919,49 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -960,29 +969,29 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -990,60 +999,74 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>56</v>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
